--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Adam Mohamed Abdelmoneim Amin El Masry</x:t>
   </x:si>
   <x:si>
-    <x:t>1220215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عمرو محمود كامل رشاد توكل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Amr Mahmoud Tawakol</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210196</x:t>
   </x:si>
   <x:si>
@@ -78,15 +69,6 @@
     <x:t>Asser Haitham Abdulaziz Mohamed Mostafa</x:t>
   </x:si>
   <x:si>
-    <x:t>1220226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الحسين محمد محمود عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220005</x:t>
   </x:si>
   <x:si>
@@ -105,15 +87,6 @@
     <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه سيد بدير احمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Sayed Bedier Ahmed Amin</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220010</x:t>
   </x:si>
   <x:si>
@@ -123,15 +96,6 @@
     <x:t>Rawan Ahmed Elsayed Mohamed Elnabarawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ريتاج حسين محمود حسين عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Retaj hussein</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210230</x:t>
   </x:si>
   <x:si>
@@ -141,15 +105,6 @@
     <x:t>ZEIAD MOSTAFA IBRAHIM ABDOU ELRAYES</x:t>
   </x:si>
   <x:si>
-    <x:t>1220240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد معتز محمد محمد فؤاد إسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziyad Moataz Mohamed Mohamed Fouad Ismail</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220051</x:t>
   </x:si>
   <x:si>
@@ -168,15 +123,6 @@
     <x:t>sama hatem mostafa ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طارق اسامة احمد مصطفي احمد العشماوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tarek Osama Ahmed Mostafa Ahmed Elashmawy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210353</x:t>
   </x:si>
   <x:si>
@@ -186,15 +132,6 @@
     <x:t>Abdelrahman Hamdy Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman mohamed fathy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220128</x:t>
   </x:si>
   <x:si>
@@ -213,15 +150,6 @@
     <x:t>abdallah ahmed mohamed ahmed mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1220261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي خالد محمد حمدي محمد سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Khaled Mohamed Hamdy Mohamed Salem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1162052</x:t>
   </x:si>
   <x:si>
@@ -231,33 +159,6 @@
     <x:t>Omar Khaled Elsaid Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد صابر محمد حمص</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar walid saber mohamed homos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد سيد محمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد محمود احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210073</x:t>
   </x:si>
   <x:si>
@@ -276,33 +177,6 @@
     <x:t>Mohamed Khalid Elsayed Azmy Yousef Elsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد رائد سيد فوده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Raed Sayed Foda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد رضا محمد عثمان دسوقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Reda Mohamed Osman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عماد عبدالمنعم المظلوم محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220278</x:t>
   </x:si>
   <x:si>
@@ -312,33 +186,6 @@
     <x:t>mohamed hesham ibrahim hassanain</x:t>
   </x:si>
   <x:si>
-    <x:t>1230324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان عمرو احمد عبدالفتاح ياسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى تامر مصطفى السيد ابوالفضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Tamer Mostafa Alsayed Abuelfadl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي حسام الدين حفناوي مصطفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hossameldin Hefnawi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230260</x:t>
   </x:si>
   <x:si>
@@ -357,24 +204,6 @@
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
   </x:si>
   <x:si>
-    <x:t>1230286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى طارق ابراهيم أحمد نصرالدين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yehia Tarek ibrahim ahmed nasreldin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عبدالنبى عويس خلف طلبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youssef Abdelnaby Awais Khalaf Tolba</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220091</x:t>
   </x:si>
   <x:si>
@@ -382,24 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Amr Abdelrahman Elserwy Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -515,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -825,7 +636,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="36.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.300625000000004" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -938,7 +749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4194556713</x:v>
+        <x:v>45906.6642599537</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -970,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6642599537</x:v>
+        <x:v>45906.6651898148</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1002,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6651898148</x:v>
+        <x:v>45907.415383912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1034,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.415383912</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1066,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.869284838</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1098,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45906.6952433218</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1130,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1162,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4601518519</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1194,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6952433218</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1226,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8663944444</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1258,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1290,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8596338773</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1322,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1354,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1386,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8665419329</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1418,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1450,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.7293347569</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1482,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1532,678 +1343,6 @@
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
     </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4197314468</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.4155314005</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45909.4409860764</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45909.4254305903</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45909.4401424421</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6644394676</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.4143855324</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45912.8792241898</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45913.7317593403</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.4201091435</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.4146748843</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4198864583</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45912.8794659375</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45912.8598597222</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4164703704</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4192483449</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.5004795139</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45913.7654073727</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45906.6647042824</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45909.5377995023</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45912.8698941782</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2216,9 +1355,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Communications-1: Analogue Communications (EECS306) Location : [20505]20505-45-الجيزة الرئيسي Time : Thursday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Amr Abdelrahman Elserwy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +645,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="36.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.300625000000004" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد سامح محمد محمد الغريب ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220113</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -726,7 +735,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6654668634</x:v>
+        <x:v>45923.1338044329</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -758,7 +767,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6642599537</x:v>
+        <x:v>45906.6654668634</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -790,7 +799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6651898148</x:v>
+        <x:v>45906.6642599537</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.415383912</x:v>
+        <x:v>45906.6651898148</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.415383912</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6952433218</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6952433218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.7972866898</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Ahmed wael mohamed gowayed nehila</x:t>
   </x:si>
   <x:si>
+    <x:t>1220224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يحى سعد السيد نافع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yehya Saad Nafea</x:t>
+  </x:si>
+  <x:si>
     <x:t>2230003</x:t>
   </x:si>
   <x:si>
@@ -96,15 +105,6 @@
     <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
-    <x:t>1220010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روان احمد السيد محمد النبراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rawan Ahmed Elsayed Mohamed Elnabarawy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210230</x:t>
   </x:si>
   <x:si>
@@ -141,15 +141,6 @@
     <x:t>Abdelrahman Hamdy Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن ياسر احمد محمد بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrhman Yasser Ahmed Mohamed Bakr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220251</x:t>
   </x:si>
   <x:si>
@@ -168,6 +159,15 @@
     <x:t>Omar Khaled Elsaid Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مالك مدحت محمد أنور محمد نافع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malek Medhat Mohamed Anwar Mohamed Nafei</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210073</x:t>
   </x:si>
   <x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Khalid Elsayed Azmy Yousef Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو ابراهيم المصري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed amr ebrahim elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -863,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.415383912</x:v>
+        <x:v>45927.4252852199</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.415383912</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6952433218</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45927.414599537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45927.4203751157</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.7972866898</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Asser Haitham Abdulaziz Mohamed Mostafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1230294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انطون مجدي يعقوب نظير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANTON</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220005</x:t>
   </x:si>
   <x:si>
@@ -202,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed hesham ibrahim hassanain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان عمرو احمد عبدالفتاح ياسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
   </x:si>
   <x:si>
     <x:t>1230260</x:t>
@@ -353,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -936,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45927.8718778125</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45927.7637032407</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.414599537</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45927.414599537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4203751157</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45927.4203751157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45927.6802589468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.7972866898</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1483,70 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.6647042824</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,15 +229,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Mohamad Abdelrazik Mashaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور اسلام محمود السيد عطيه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1220091</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45921.7972866898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45921.7972866898</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Adam Mohamed Abdelmoneim Amin El Masry</x:t>
   </x:si>
   <x:si>
+    <x:t>1220215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عمرو محمود كامل رشاد توكل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Amr Mahmoud Tawakol</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210196</x:t>
   </x:si>
   <x:si>
@@ -114,6 +123,15 @@
     <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد احمد محمد مهدى عصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210230</x:t>
   </x:si>
   <x:si>
@@ -220,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Amr Ahmed Abdelfatah Yassen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم مصطفى عمر حبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Mostafa Omar Habeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230260</x:t>
@@ -362,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -817,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6642599537</x:v>
+        <x:v>45929.5663481134</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6651898148</x:v>
+        <x:v>45906.6642599537</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4252852199</x:v>
+        <x:v>45906.6651898148</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.415383912</x:v>
+        <x:v>45927.4252852199</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.8718778125</x:v>
+        <x:v>45907.415383912</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45927.8718778125</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.7637032407</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45929.5472188657</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45927.7637032407</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.414599537</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45927.414599537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4203751157</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.6802589468</x:v>
+        <x:v>45927.4203751157</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45927.6802589468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.7972866898</x:v>
+        <x:v>45929.5470181713</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1533,102 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.4164703704</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6647042824</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Khalid Elsayed Azmy Yousef Elsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو ابراهيم المصري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1420,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4203751157</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45927.6802589468</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.6802589468</x:v>
+        <x:v>45929.5470181713</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45929.5470181713</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45921.7972866898</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1597,38 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45921.7972866898</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35317.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35317.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed wael mohamed gowayed nehila</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد يحى سعد السيد نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>2230003</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -931,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4252852199</x:v>
+        <x:v>45907.415383912</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.415383912</x:v>
+        <x:v>45927.8718778125</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.8718778125</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45929.5472188657</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45929.5472188657</x:v>
+        <x:v>45927.7637032407</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.7637032407</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45927.414599537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.414599537</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45907.4143855324</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45907.4146748843</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4146748843</x:v>
+        <x:v>45927.6802589468</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.6802589468</x:v>
+        <x:v>45929.5470181713</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45929.5470181713</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45921.7972866898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45921.7972866898</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
